--- a/publications_before2020.xlsx
+++ b/publications_before2020.xlsx
@@ -13,129 +13,338 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t xml:space="preserve"> Manohar Kumar, Speaking Truth to Power. A Theory of Whistleblowing with Daniele Santoro. Springer. 2018. “A Justification of Whistleblowing”, Philosophy and Social Criticism, with Daniele Santoro. Vol 43, No. 7, 2017.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manohar Kumar, “A Right to Protection of Whistleblowers”, with Daniele Santoro, in Archibugi, D and A, Benli (eds.). Claiming Rights in Europe: A European Citizenship in Practice. Routledge, Taylor and Francis. 2017.</t>
-  </si>
-  <si>
-    <t>Khan, Aasim. Arora, Gaurav. and Khan, Zoya. “Toxic talk and Environment Action: Understanding news and social media engagement around air pollution issues in Delhi”. Accepted under the panel: In the time of toxic air: knowledge, politics, urban futures. At International Sociological Association (ISA) RC21 Annual Conference, Delhi. September 2019.</t>
-  </si>
-  <si>
-    <t>Arora, G., Feng, H., Anderson, C.J., Hennessy, D.A. 2020. Evidence of climate change impacts on crop comparative advantage and land use. Agricultural Economics, 51(2): 221-236.</t>
-  </si>
-  <si>
-    <t>Arora, G., Wolter, P.T. 2018. Tracking land cover change along the western edge of the U.S. Corn Belt from 1984 through 2016 using satellite sensor data: Observed trends and contributing factors. Journal of Land Use Science, 13(1-2): 59-80.</t>
-  </si>
-  <si>
-    <t>Gayatri Nair, 'Representations of Rape in Popular Culture: Gone Girl and Badlapur' (Co-authored with Dipti Tamang). In International Feminist Journal of Politics, Volume 18, Issue 4, 14th December, 2016; pp. 614-618.</t>
-  </si>
-  <si>
-    <t>Gayatri Nair,'The Bitter Aftertaste of the Beef Ban; Choice, Caste and Consumption'. In Economic and Political Weekly, Volume 51, Issue 10, 2016; pp 14-15. ISSN-0012-9976</t>
-  </si>
-  <si>
-    <t>Kanjilal Kirti,“Endogenous Equity Shares in Cournot Competition: Welfare Analysis and Policy.” - Kiriti Kanjilal and Felix Munoz-Garcia. (Published online ahead of print in The B.E. Journal of Economic Analysis and Policy).</t>
-  </si>
-  <si>
-    <t>Masakazu Ide, Takeshi Atsumi, Reiko Fukatsu, Mrinmoy Chakrabarty. Effects of emotion cues on visual temporal resolution in individuals with autism spectrum disorders. 42 nd Annual Meeting of Japan Neuroscience Society, Niigata, JAPAN – July 25, 2019</t>
-  </si>
-  <si>
-    <t>Mrinmoy Chakrabarty, M.Wada. Perception of Visual Ensemble Statistics of Faces in Autism and Typically Developing individuals. 42 nd Annual Meeting of Japan Neuroscience Society, Niigata, JAPAN – July 26, 2019</t>
-  </si>
-  <si>
-    <t>Nishad Patnaik, “Indeterminacy and Identity: Kant and Husserl on Moral Consciousness”, ed. Ranjan Kr. Panda, to be published by the Department of Humanities and Social Sciences, IIT Bombay.</t>
-  </si>
-  <si>
-    <t>Nishad Patnaik, “Science and the Promise of Objective Knowledge: Husserl’s Intersubjective Renewal”, in Problems of the Self: Philosophical Writings in Consciousness, Subjectivity and Otherness, ed. Manidipa Sen, Aakar Books, New Delhi, 2019.</t>
-  </si>
-  <si>
-    <t>Paro Mishra, 2018. Being ‘bare branches’: Demographic imbalance, marriage exclusion and masculinity in North India’. In Sharada Srinivasan and Li Shuzhou (eds.) ‘Scarce’ Women and ‘Surplus’ Men in China and India: Macro Demographics versus Local Dynamics. Canada: Springer.</t>
-  </si>
-  <si>
-    <t>Paro Mishra, 2016. Imbalanced sex-ratio and cross-region marriage: The challenges of transcending caste boundaries. In Ravinder Kaur (ed.) Too Many Men, Too Few Women: Mapping the Adverse Consequences of Imbalanced Sex-ratios in India and China. New Delhi: Orient Blackswan.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Praveen Priyadarshi, “Letter from Gurgaon” LSE South Asia Blog, January 21, 2013.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Manohar Kumar,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Speaking Truth to Power. A Theory of Whistleblowing with Daniele Santoro. Springer. 2018. “A Justification of Whistleblowing”, Philosophy and Social Criticism, with Daniele Santoro. Vol 43, No. 7, 2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> Manohar Kumar,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> “A Right to Protection of Whistleblowers”, with Daniele Santoro, in Archibugi, D and A, Benli (eds.). Claiming Rights in Europe: A European Citizenship in Practice. Routledge, Taylor and Francis. 2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Khan, Aasim. Arora, Gaurav. and Khan, Zoya</t>
+    </r>
+    <r>
+      <t>. “Toxic talk and Environment Action: Understanding news and social media engagement around air pollution issues in Delhi”. Accepted under the panel: In the time of toxic air: knowledge, politics, urban futures. At International Sociological Association (ISA) RC21 Annual Conference, Delhi. September 2019.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Arora, G., Feng, H., Anderson, C.J., Hennessy, D.A</t>
+    </r>
+    <r>
+      <t>. 2020. Evidence of climate change impacts on crop comparative advantage and land use. Agricultural Economics, 51(2): 221-236.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Arora, G., Wolter, P.T. </t>
+    </r>
+    <r>
+      <t>2018. Tracking land cover change along the western edge of the U.S. Corn Belt from 1984 through 2016 using satellite sensor data: Observed trends and contributing factors. Journal of Land Use Science, 13(1-2): 59-80.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Gayatri Nair,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 'Representations of Rape in Popular Culture: Gone Girl and Badlapur' (Co-authored with Dipti Tamang). In International Feminist Journal of Politics, Volume 18, Issue 4, 14th December, 2016; pp. 614-618.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Gayatri Nair</t>
+    </r>
+    <r>
+      <t>,'The Bitter Aftertaste of the Beef Ban; Choice, Caste and Consumption'. In Economic and Political Weekly, Volume 51, Issue 10, 2016; pp 14-15. ISSN-0012-9976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Kanjilal Kirti</t>
+    </r>
+    <r>
+      <t>,“Endogenous Equity Shares in Cournot Competition: Welfare Analysis and Policy.” - Kiriti Kanjilal and Felix Munoz-Garcia. (Published online ahead of print in The B.E. Journal of Economic Analysis and Policy).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Masakazu Ide, Takeshi Atsumi, Reiko Fukatsu, Mrinmoy Chakrabarty</t>
+    </r>
+    <r>
+      <t>. Effects of emotion cues on visual temporal resolution in individuals with autism spectrum disorders. 42 nd Annual Meeting of Japan Neuroscience Society, Niigata, JAPAN – July 25, 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Mrinmoy Chakrabarty, M.Wada.</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Perception of Visual Ensemble Statistics of Faces in Autism and Typically Developing individuals. 42 nd Annual Meeting of Japan Neuroscience Society, Niigata, JAPAN – July 26, 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Nishad</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Patnaik</t>
+    </r>
+    <r>
+      <t>, “Indeterminacy and Identity: Kant and Husserl on Moral Consciousness”, ed. Ranjan Kr. Panda, to be published by the Department of Humanities and Social Sciences, IIT Bombay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Nishad</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Patnaik</t>
+    </r>
+    <r>
+      <t>, “Science and the Promise of Objective Knowledge: Husserl’s Intersubjective Renewal”, in Problems of the Self: Philosophical Writings in Consciousness, Subjectivity and Otherness, ed. Manidipa Sen, Aakar Books, New Delhi, 2019.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Paro</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Mishra</t>
+    </r>
+    <r>
+      <t>, 2018. Being ‘bare branches’: Demographic imbalance, marriage exclusion and masculinity in North India’. In Sharada Srinivasan and Li Shuzhou (eds.) ‘Scarce’ Women and ‘Surplus’ Men in China and India: Macro Demographics versus Local Dynamics. Canada: Springer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Paro</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Mishra</t>
+    </r>
+    <r>
+      <t>, 2016. Imbalanced sex-ratio and cross-region marriage: The challenges of transcending caste boundaries. In Ravinder Kaur (ed.) Too Many Men, Too Few Women: Mapping the Adverse Consequences of Imbalanced Sex-ratios in India and China. New Delhi: Orient Blackswan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <color rgb="FF000000"/>
-      </rPr>
-      <t>Link</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Praveen Priyadarshi, “Gujarat: How an Exclusionary Political Pact is also a Durable One” LSE South Asia Blog, December 3, 2012.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+        <u/>
+      </rPr>
+      <t>Praveen</t>
+    </r>
+    <r>
+      <rPr>
         <color rgb="FF000000"/>
-      </rPr>
-      <t>Link</t>
-    </r>
-  </si>
-  <si>
-    <t>Smriti Singh, Authored “Becoming a Critical Pedagogue: Teacher Agency and Critical Theory” in a book titled ‘Dynamics of Inclusive Classroom: Social Diversity, Inequality and School Education in India’ published by the Orient Blackswan in September 2017. ISBN number is -978-93-52870-13-4.</t>
-  </si>
-  <si>
-    <t>Smriti Singh, Authored“Discourses of Caste in the Classroom: Reflections from Under- Graduate Teaching in a Delhi University College” in a book titled ‘Accessing Higher Education: Footprints of Marginalised Groups’ published by Aakar Books, New Delhi in June, 2017. ISBN number is -978-93-5002-485-0.</t>
-  </si>
-  <si>
-    <t>Mishra, M. V., Ray, S. B., &amp; Srinivasan, N. (2018). Cross-cultural emotion recognition and evaluation of Radboud faces database with an Indian sample. PloS one, 13(10), e0203959.</t>
-  </si>
-  <si>
-    <t>Ray, S. B. (2018). Applications of Neuroscience for Managing Affective State at Workplace. NHRD Network Journal, 0974173918799138.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Souvik Dutta, Ethnic Conflicts with Informed agents: A Cheap Talk Game with Multiple Audiences (with Pathikrit Basu and Suraj Shekhar), 2019, Economics Letters </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <color rgb="FF000000"/>
-      </rPr>
-      <t>[Download]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Souvik Dutta, Do Social Networks facilitate the Spread of Ponzi Schemes? Evidence from a Primary Survey (with Abhirup Sarkar), 2019, Economic and Political Weekly </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+        <u/>
+      </rPr>
+      <t>Priyadarshi</t>
+    </r>
+    <r>
+      <rPr>
         <color rgb="FF000000"/>
-      </rPr>
-      <t>[Download]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
+        <u/>
+      </rPr>
+      <t>, “Letter from Gurgaon” LSE South Asia Blog, January 21, 2013.Link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>Praveen</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>Priyadarshi</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>, “Gujarat: How an Exclusionary Political Pact is also a Durable One” LSE South Asia Blog, December 3, 2012.Link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Smriti Singh,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Authored “Becoming a Critical Pedagogue: Teacher Agency and Critical Theory” in a book titled ‘Dynamics of Inclusive Classroom: Social Diversity, Inequality and School Education in India’ published by the Orient Blackswan in September 2017. ISBN number is -978-93-52870-13-4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Smriti Singh</t>
+    </r>
+    <r>
+      <t>, Authored“Discourses of Caste in the Classroom: Reflections from Under- Graduate Teaching in a Delhi University College” in a book titled ‘Accessing Higher Education: Footprints of Marginalised Groups’ published by Aakar Books, New Delhi in June, 2017. ISBN number is -978-93-5002-485-0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Mishra, M. V., Ray, S. B., &amp; Srinivasan, N. </t>
+    </r>
+    <r>
+      <t>(2018). Cross-cultural emotion recognition and evaluation of Radboud faces database with an Indian sample. PloS one, 13(10), e0203959.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Ray, S. B</t>
+    </r>
+    <r>
+      <t>. (2018). Applications of Neuroscience for Managing Affective State at Workplace. NHRD Network Journal, 0974173918799138.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>Souvik Dutta</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>, Ethnic Conflicts with Informed agents: A Cheap Talk Game with Multiple Audiences (with Pathikrit Basu and Suraj Shekhar), 2019, Economics Letters [Download].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>Souvik Dutta</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>, Do Social Networks facilitate the Spread of Ponzi Schemes? Evidence from a Primary Survey (with Abhirup Sarkar), 2019, Economic and Political Weekly [Download].</t>
     </r>
   </si>
 </sst>
@@ -181,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -189,9 +398,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -408,118 +614,1099 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A15"/>
